--- a/resultats/prob_defuncio.xlsx
+++ b/resultats/prob_defuncio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1075,26 +1075,14 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>72912</v>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="n">
-        <v>72912</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="n">
+      <c r="G20" t="n">
         <v>248</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H20" t="n">
         <v>0.003401360544217687</v>
       </c>
     </row>
